--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B3ED33-9EA4-4C02-9EB5-88E745A7F895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C388F-90D1-4C54-A84E-6A75E594AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="123">
   <si>
     <t>Nr</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>Nachtrag Besprechungsprotokol</t>
+  </si>
+  <si>
+    <t>Ideen findung, bereits realisierte Projekte weiter entwickeln</t>
+  </si>
+  <si>
+    <t>Team Meeting: Informationen sammeln Perdsonenerkennung, Entscheidung treffen</t>
+  </si>
+  <si>
+    <t>20.11</t>
   </si>
 </sst>
 </file>
@@ -1304,100 +1313,116 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,6 +1430,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1420,9 +1448,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1466,13 +1491,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,90 +1533,83 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1599,16 +1617,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,8 +1629,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2156,18 +2165,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2177,18 +2186,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="141">
-        <v>1</v>
-      </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="94">
+        <v>1</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2201,20 +2210,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145">
+      <c r="D4" s="98"/>
+      <c r="E4" s="99">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2224,20 +2233,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="121">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="95">
         <v>12</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="146" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2247,21 +2256,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="154">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="76">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2271,19 +2280,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="156">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="78">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2293,9 +2302,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2303,11 +2312,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2335,62 +2344,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="151" t="s">
+      <c r="I10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="153"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="75"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="111" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="129">
+      <c r="D11" s="133">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="158" t="s">
+      <c r="H11" s="161"/>
+      <c r="I11" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2473,26 +2482,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="161" t="s">
+      <c r="AD11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="160" t="s">
+      <c r="AE11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="160" t="s">
+      <c r="AF11" s="85" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="159"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2553,30 +2562,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="109" t="str">
+      <c r="B13" s="113" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="118">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="122">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="95">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="135">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2664,23 +2673,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="74">
+      <c r="AE13" s="67">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="76">
+      <c r="AF13" s="80">
         <f>AD14-AE13</f>
-        <v>-73</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="68"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="158"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2690,7 +2699,7 @@
       </c>
       <c r="K14" s="32">
         <f>'Std-A'!$C$23</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14" s="32">
         <f>'Std-A'!$C$34</f>
@@ -2766,19 +2775,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="73"/>
+        <v>6</v>
+      </c>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="81"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="158"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2788,7 +2797,7 @@
       </c>
       <c r="K15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="1"/>
@@ -2864,31 +2873,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="78"/>
+        <v>6</v>
+      </c>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="82"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="str">
+      <c r="B16" s="105" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="85">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="127">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="130">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="102">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -2976,23 +2985,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="74">
+      <c r="AE16" s="67">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="76">
+      <c r="AF16" s="80">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="68"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="158"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3080,17 +3089,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="73"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="81"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="68"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="158"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3178,29 +3187,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="77"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="155"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="str">
+      <c r="B19" s="105" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="85">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="127">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="146">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="102">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="157"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3288,23 +3297,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="AE19" s="67">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="72">
+      <c r="AF19" s="160">
         <f>AD20-AE19</f>
         <v>-75</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="68"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="158"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3392,17 +3401,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="73"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="81"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="68"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="158"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3490,29 +3499,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="78"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="82"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79" t="str">
+      <c r="B22" s="105" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="85">
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="127">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="146">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="102">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="157"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3600,23 +3609,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AE22" s="67">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="76">
+      <c r="AF22" s="80">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="68"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="158"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3704,17 +3713,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="73"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="81"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="68"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="158"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3802,29 +3811,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="77"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="155"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="str">
+      <c r="B25" s="105" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="85">
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="127">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="146">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="102">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="157"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3912,23 +3921,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="70">
+      <c r="AE25" s="159">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="72">
+      <c r="AF25" s="160">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="158"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4016,17 +4025,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="73"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="81"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="68"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="158"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4114,8 +4123,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="73"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="81"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -4585,16 +4594,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4611,44 +4648,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4765,7 +4774,7 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4822,10 +4831,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4923,10 +4932,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -4965,10 +4974,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -4977,8 +4986,12 @@
       <c r="A17" s="46">
         <v>1</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="43">
+        <v>90</v>
+      </c>
       <c r="D17" s="46" t="s">
         <v>16</v>
       </c>
@@ -4988,12 +5001,18 @@
       <c r="A18" s="46">
         <v>2</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="43">
+        <v>120</v>
+      </c>
       <c r="D18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="42" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
@@ -5040,31 +5059,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5092,10 +5111,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5167,31 +5186,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5219,10 +5238,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5294,31 +5313,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5346,10 +5365,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5421,31 +5440,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5473,10 +5492,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5548,31 +5567,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5600,10 +5619,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5675,31 +5694,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5727,10 +5746,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5802,31 +5821,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5854,10 +5873,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5929,31 +5948,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -5981,10 +6000,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6056,31 +6075,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6108,10 +6127,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6183,31 +6202,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6235,10 +6254,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6310,31 +6329,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6362,10 +6381,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6437,31 +6456,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6489,10 +6508,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6564,31 +6583,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6616,10 +6635,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6691,31 +6710,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6743,10 +6762,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6818,31 +6837,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -6870,10 +6889,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6945,31 +6964,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -6997,10 +7016,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7072,31 +7091,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7124,10 +7143,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7199,31 +7218,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7251,10 +7270,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7326,87 +7345,102 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7431,72 +7465,57 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7567,10 +7586,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7650,10 +7669,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7694,10 +7713,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7769,31 +7788,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7821,10 +7840,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7896,31 +7915,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -7948,10 +7967,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8023,31 +8042,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8075,10 +8094,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8150,31 +8169,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8202,10 +8221,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8277,31 +8296,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8329,10 +8348,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8404,31 +8423,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8456,10 +8475,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8531,31 +8550,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8583,10 +8602,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8658,31 +8677,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8710,10 +8729,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8785,31 +8804,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8837,10 +8856,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8912,31 +8931,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -8964,10 +8983,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9039,31 +9058,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9091,10 +9110,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9166,31 +9185,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9218,10 +9237,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9293,31 +9312,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9345,10 +9364,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9420,31 +9439,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9472,10 +9491,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9547,31 +9566,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9599,10 +9618,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9674,31 +9693,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9726,10 +9745,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9801,31 +9820,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9853,10 +9872,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9928,31 +9947,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -9980,10 +9999,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10055,115 +10074,74 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10188,44 +10166,85 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10296,10 +10315,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10379,10 +10398,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10423,10 +10442,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10498,31 +10517,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10550,10 +10569,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10625,31 +10644,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10677,10 +10696,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10752,31 +10771,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10804,10 +10823,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10879,31 +10898,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -10931,10 +10950,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11006,31 +11025,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11058,10 +11077,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11133,31 +11152,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11185,10 +11204,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11260,31 +11279,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11312,10 +11331,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11387,31 +11406,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11439,10 +11458,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11514,31 +11533,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11566,10 +11585,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11641,31 +11660,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11693,10 +11712,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11768,31 +11787,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -11820,10 +11839,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11895,31 +11914,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -11947,10 +11966,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12022,31 +12041,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12074,10 +12093,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12149,31 +12168,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12201,10 +12220,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12276,31 +12295,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12328,10 +12347,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12403,31 +12422,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12455,10 +12474,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12530,31 +12549,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12582,10 +12601,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12657,31 +12676,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12709,10 +12728,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12784,86 +12803,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -12888,73 +12924,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13025,10 +13044,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13108,10 +13127,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13152,10 +13171,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13227,31 +13246,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13279,10 +13298,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13354,31 +13373,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13406,10 +13425,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13481,31 +13500,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13533,10 +13552,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13608,31 +13627,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13660,10 +13679,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13735,31 +13754,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13787,10 +13806,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13862,31 +13881,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -13914,10 +13933,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -13989,31 +14008,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14041,10 +14060,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14116,31 +14135,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14168,10 +14187,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14243,31 +14262,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14295,10 +14314,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14370,31 +14389,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14422,10 +14441,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14497,31 +14516,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14549,10 +14568,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14624,31 +14643,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14676,10 +14695,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14751,31 +14770,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14803,10 +14822,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14878,31 +14897,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -14930,10 +14949,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15005,31 +15024,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15057,10 +15076,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15132,31 +15151,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15184,10 +15203,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15259,31 +15278,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15311,10 +15330,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15386,31 +15405,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15438,10 +15457,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15513,110 +15532,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15633,57 +15629,80 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15754,10 +15773,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15837,10 +15856,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -15881,10 +15900,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15956,31 +15975,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16008,10 +16027,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16083,31 +16102,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16135,10 +16154,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16210,31 +16229,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16262,10 +16281,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16337,31 +16356,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16389,10 +16408,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16464,31 +16483,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16516,10 +16535,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16591,31 +16610,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16643,10 +16662,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16718,31 +16737,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16770,10 +16789,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16845,31 +16864,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -16897,10 +16916,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -16972,31 +16991,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17024,10 +17043,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17099,31 +17118,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17151,10 +17170,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17226,31 +17245,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17278,10 +17297,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17353,31 +17372,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17405,10 +17424,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17480,31 +17499,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17532,10 +17551,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17607,31 +17626,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17659,10 +17678,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17734,31 +17753,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17786,10 +17805,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17861,31 +17880,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -17913,10 +17932,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -17988,31 +18007,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18040,10 +18059,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18115,31 +18134,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18167,10 +18186,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18242,86 +18261,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -18346,73 +18382,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C388F-90D1-4C54-A84E-6A75E594AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78694FC3-9100-473A-8D1D-68D4AAB48B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="125">
   <si>
     <t>Nr</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>20.11</t>
+  </si>
+  <si>
+    <t>Tests für Personenerkennung mittels bereits vorhandenen Projekten</t>
+  </si>
+  <si>
+    <t>Vorhandene Codes sind als basis zu nehemen, müssen allerdings noch angepasst werden auf unsere Umgebung etc…</t>
   </si>
 </sst>
 </file>
@@ -1313,116 +1319,100 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,9 +1420,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1448,6 +1435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1491,13 +1481,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,83 +1523,90 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1617,7 +1614,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,8 +1635,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2165,18 +2171,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2186,18 +2192,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="94">
-        <v>1</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="141">
+        <v>1</v>
+      </c>
+      <c r="F3" s="141"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2210,20 +2216,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99">
+      <c r="D4" s="144"/>
+      <c r="E4" s="145">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="145"/>
+      <c r="G4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2233,20 +2239,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="95">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="121">
         <v>12</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="100" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2256,21 +2262,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="76">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="154">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2280,19 +2286,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="78">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="156">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2302,9 +2308,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2312,11 +2318,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2344,62 +2350,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="153"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="133">
+      <c r="D11" s="129">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="158" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2482,26 +2488,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="86" t="s">
+      <c r="AD11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="85" t="s">
+      <c r="AE11" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="85" t="s">
+      <c r="AF11" s="160" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="112"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="84"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2562,30 +2568,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="str">
+      <c r="B13" s="109" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="122">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="118">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="121">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="131">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="157"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2673,23 +2679,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="67">
+      <c r="AE13" s="74">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="80">
+      <c r="AF13" s="76">
         <f>AD14-AE13</f>
-        <v>-69</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="158"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2699,7 +2705,7 @@
       </c>
       <c r="K14" s="32">
         <f>'Std-A'!$C$23</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14" s="32">
         <f>'Std-A'!$C$34</f>
@@ -2775,19 +2781,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="81"/>
+        <v>9</v>
+      </c>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="73"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="158"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2803,7 @@
       </c>
       <c r="K15" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="1"/>
@@ -2873,31 +2879,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="82"/>
+        <v>9</v>
+      </c>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="78"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="str">
+      <c r="B16" s="79" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="127">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="85">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="126">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="91">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="157"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -2985,23 +2991,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="74">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="80">
+      <c r="AF16" s="76">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="158"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3089,17 +3095,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="81"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="73"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3187,29 +3193,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="155"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="77"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="str">
+      <c r="B19" s="79" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="127">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="85">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="88">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="91">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="157"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3297,23 +3303,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="67">
+      <c r="AE19" s="74">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="160">
+      <c r="AF19" s="72">
         <f>AD20-AE19</f>
         <v>-75</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="158"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3401,17 +3407,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="81"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="73"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="158"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3499,29 +3505,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="82"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="78"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105" t="str">
+      <c r="B22" s="79" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="127">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="85">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="88">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="91">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="157"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3609,23 +3615,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="67">
+      <c r="AE22" s="74">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="80">
+      <c r="AF22" s="76">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="158"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3713,17 +3719,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="81"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="73"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="158"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3811,29 +3817,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="155"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="77"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="str">
+      <c r="B25" s="79" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="127">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="85">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="88">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G25" s="91">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="157"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3921,23 +3927,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="159">
+      <c r="AE25" s="70">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="160">
+      <c r="AF25" s="72">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="158"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4025,17 +4031,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="81"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="73"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="158"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4123,8 +4129,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="81"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="73"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -4594,44 +4600,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4648,16 +4626,44 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4773,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4831,10 +4837,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4932,10 +4938,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -4974,10 +4980,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5018,12 +5024,18 @@
       <c r="A19" s="46">
         <v>3</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="43">
+        <v>180</v>
+      </c>
       <c r="D19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="42" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
@@ -5059,31 +5071,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
-        <v>4</v>
-      </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+        <v>7</v>
+      </c>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5111,10 +5123,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5186,31 +5198,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5238,10 +5250,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5313,31 +5325,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5365,10 +5377,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5440,31 +5452,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5492,10 +5504,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5567,31 +5579,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5619,10 +5631,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5694,31 +5706,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5746,10 +5758,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5821,31 +5833,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5873,10 +5885,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5948,31 +5960,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -6000,10 +6012,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6075,31 +6087,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6127,10 +6139,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6202,31 +6214,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6254,10 +6266,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6329,31 +6341,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6381,10 +6393,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6456,31 +6468,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6508,10 +6520,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6583,31 +6595,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6635,10 +6647,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6710,31 +6722,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6762,10 +6774,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6837,31 +6849,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -6889,10 +6901,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6964,31 +6976,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -7016,10 +7028,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7091,31 +7103,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7143,10 +7155,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7218,31 +7230,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7270,10 +7282,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7345,102 +7357,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7465,57 +7462,72 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7586,10 +7598,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7669,10 +7681,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7713,10 +7725,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7788,31 +7800,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7840,10 +7852,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7915,31 +7927,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -7967,10 +7979,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8042,31 +8054,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8094,10 +8106,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8169,31 +8181,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8221,10 +8233,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8296,31 +8308,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8348,10 +8360,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8423,31 +8435,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8475,10 +8487,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8550,31 +8562,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8602,10 +8614,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8677,31 +8689,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8729,10 +8741,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8804,31 +8816,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8856,10 +8868,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8931,31 +8943,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -8983,10 +8995,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9058,31 +9070,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9110,10 +9122,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9185,31 +9197,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9237,10 +9249,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9312,31 +9324,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9364,10 +9376,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9439,31 +9451,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9491,10 +9503,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9566,31 +9578,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9618,10 +9630,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9693,31 +9705,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9745,10 +9757,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9820,31 +9832,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9872,10 +9884,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9947,31 +9959,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -9999,10 +10011,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10074,74 +10086,115 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10166,85 +10219,44 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10315,10 +10327,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10398,10 +10410,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10442,10 +10454,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10517,31 +10529,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10569,10 +10581,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10644,31 +10656,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10696,10 +10708,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10771,31 +10783,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10823,10 +10835,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10898,31 +10910,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -10950,10 +10962,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11025,31 +11037,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11077,10 +11089,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11152,31 +11164,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11204,10 +11216,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11279,31 +11291,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11331,10 +11343,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11406,31 +11418,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11458,10 +11470,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11533,31 +11545,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11585,10 +11597,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11660,31 +11672,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11712,10 +11724,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11787,31 +11799,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -11839,10 +11851,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11914,31 +11926,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -11966,10 +11978,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12041,31 +12053,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12093,10 +12105,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12168,31 +12180,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12220,10 +12232,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12295,31 +12307,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12347,10 +12359,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12422,31 +12434,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12474,10 +12486,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12549,31 +12561,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12601,10 +12613,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12676,31 +12688,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12728,10 +12740,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12803,79 +12815,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -12900,80 +12943,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13044,10 +13056,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13127,10 +13139,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13171,10 +13183,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13246,31 +13258,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13298,10 +13310,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13373,31 +13385,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13425,10 +13437,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13500,31 +13512,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13552,10 +13564,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13627,31 +13639,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13679,10 +13691,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13754,31 +13766,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13806,10 +13818,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13881,31 +13893,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -13933,10 +13945,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14008,31 +14020,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14060,10 +14072,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14135,31 +14147,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14187,10 +14199,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14262,31 +14274,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14314,10 +14326,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14389,31 +14401,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14441,10 +14453,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14516,31 +14528,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14568,10 +14580,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14643,31 +14655,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14695,10 +14707,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14770,31 +14782,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14822,10 +14834,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14897,31 +14909,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -14949,10 +14961,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15024,31 +15036,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15076,10 +15088,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15151,31 +15163,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15203,10 +15215,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15278,31 +15290,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15330,10 +15342,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15405,31 +15417,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15457,10 +15469,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15532,87 +15544,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15629,80 +15664,57 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15773,10 +15785,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15856,10 +15868,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -15900,10 +15912,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15975,31 +15987,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16027,10 +16039,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16102,31 +16114,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16154,10 +16166,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16229,31 +16241,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16281,10 +16293,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16356,31 +16368,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16408,10 +16420,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16483,31 +16495,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16535,10 +16547,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16610,31 +16622,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16662,10 +16674,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16737,31 +16749,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16789,10 +16801,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16864,31 +16876,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -16916,10 +16928,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -16991,31 +17003,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17043,10 +17055,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17118,31 +17130,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17170,10 +17182,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17245,31 +17257,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17297,10 +17309,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17372,31 +17384,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17424,10 +17436,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17499,31 +17511,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17551,10 +17563,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17626,31 +17638,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17678,10 +17690,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17753,31 +17765,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17805,10 +17817,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17880,31 +17892,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -17932,10 +17944,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18007,31 +18019,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18059,10 +18071,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18134,31 +18146,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18186,10 +18198,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18261,79 +18273,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -18358,80 +18401,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78694FC3-9100-473A-8D1D-68D4AAB48B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2CDB1C-D36E-4335-ACCB-5270BD6B0473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="127">
   <si>
     <t>Nr</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>Vorhandene Codes sind als basis zu nehemen, müssen allerdings noch angepasst werden auf unsere Umgebung etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Assistant installiert und versuche gemacht auf andere Geräte im Netzwerk zuzugreifen </t>
+  </si>
+  <si>
+    <t>28.11</t>
   </si>
 </sst>
 </file>
@@ -1319,100 +1325,116 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,6 +1442,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1435,9 +1460,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1481,13 +1503,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,90 +1545,83 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1614,16 +1629,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1635,8 +1641,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2171,18 +2177,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2192,18 +2198,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="141">
-        <v>1</v>
-      </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="94">
+        <v>1</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2216,20 +2222,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145">
+      <c r="D4" s="98"/>
+      <c r="E4" s="99">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2239,20 +2245,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="121">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="95">
         <v>12</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="146" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2262,21 +2268,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="154">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="76">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2286,19 +2292,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="156">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="78">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2308,9 +2314,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2318,11 +2324,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2350,62 +2356,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="151" t="s">
+      <c r="I10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="153"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="75"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="111" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="129">
+      <c r="D11" s="133">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="158" t="s">
+      <c r="H11" s="161"/>
+      <c r="I11" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2488,26 +2494,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="161" t="s">
+      <c r="AD11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="160" t="s">
+      <c r="AE11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="160" t="s">
+      <c r="AF11" s="85" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="159"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2568,30 +2574,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="109" t="str">
+      <c r="B13" s="113" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="118">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="122">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="95">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="135">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2679,23 +2685,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="74">
+      <c r="AE13" s="67">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="76">
+      <c r="AF13" s="80">
         <f>AD14-AE13</f>
-        <v>-66</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="68"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="158"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2709,7 +2715,7 @@
       </c>
       <c r="L14" s="32">
         <f>'Std-A'!$C$34</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
@@ -2781,19 +2787,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="73"/>
+        <v>12</v>
+      </c>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="81"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="158"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2807,7 +2813,7 @@
       </c>
       <c r="L15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="1"/>
@@ -2879,31 +2885,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="78"/>
+        <v>12</v>
+      </c>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="82"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="str">
+      <c r="B16" s="105" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="85">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="127">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="130">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="102">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -2991,23 +2997,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="74">
+      <c r="AE16" s="67">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="76">
+      <c r="AF16" s="80">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="68"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="158"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3095,17 +3101,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="73"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="81"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="68"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="158"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3193,29 +3199,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="77"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="155"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="str">
+      <c r="B19" s="105" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="85">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="127">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="146">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="102">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="157"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3303,23 +3309,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="AE19" s="67">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="72">
+      <c r="AF19" s="160">
         <f>AD20-AE19</f>
         <v>-75</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="68"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="158"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3407,17 +3413,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="73"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="81"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="68"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="158"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3505,29 +3511,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="78"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="82"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79" t="str">
+      <c r="B22" s="105" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="85">
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="127">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="146">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="102">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="157"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3615,23 +3621,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AE22" s="67">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="76">
+      <c r="AF22" s="80">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="68"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="158"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3719,17 +3725,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="73"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="81"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="68"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="158"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3817,29 +3823,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="77"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="155"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="str">
+      <c r="B25" s="105" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="85">
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="127">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="146">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="102">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="157"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3927,23 +3933,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="70">
+      <c r="AE25" s="159">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="72">
+      <c r="AF25" s="160">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="158"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4031,17 +4037,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="73"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="81"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="68"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="158"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4129,8 +4135,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="73"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="81"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -4600,16 +4606,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4626,44 +4660,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4779,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4837,10 +4843,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4938,10 +4944,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -4980,10 +4986,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5071,31 +5077,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5123,10 +5129,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5135,12 +5141,18 @@
       <c r="A28" s="46">
         <v>1</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="43">
+        <v>150</v>
+      </c>
       <c r="D28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="42" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
@@ -5198,31 +5210,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5250,10 +5262,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5325,31 +5337,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5377,10 +5389,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5452,31 +5464,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5504,10 +5516,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5579,31 +5591,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5631,10 +5643,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5706,31 +5718,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5758,10 +5770,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5833,31 +5845,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5885,10 +5897,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5960,31 +5972,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -6012,10 +6024,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6087,31 +6099,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6139,10 +6151,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6214,31 +6226,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6266,10 +6278,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6341,31 +6353,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6393,10 +6405,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6468,31 +6480,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6520,10 +6532,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6595,31 +6607,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6647,10 +6659,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6722,31 +6734,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6774,10 +6786,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6849,31 +6861,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -6901,10 +6913,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6976,31 +6988,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -7028,10 +7040,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7103,31 +7115,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7155,10 +7167,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7230,31 +7242,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7282,10 +7294,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7357,87 +7369,102 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7462,72 +7489,57 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7598,10 +7610,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7681,10 +7693,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7725,10 +7737,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7800,31 +7812,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7852,10 +7864,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7927,31 +7939,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -7979,10 +7991,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8054,31 +8066,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8106,10 +8118,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8181,31 +8193,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8233,10 +8245,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8308,31 +8320,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8360,10 +8372,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8435,31 +8447,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8487,10 +8499,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8562,31 +8574,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8614,10 +8626,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8689,31 +8701,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8741,10 +8753,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8816,31 +8828,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8868,10 +8880,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8943,31 +8955,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -8995,10 +9007,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9070,31 +9082,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9122,10 +9134,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9197,31 +9209,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9249,10 +9261,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9324,31 +9336,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9376,10 +9388,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9451,31 +9463,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9503,10 +9515,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9578,31 +9590,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9630,10 +9642,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9705,31 +9717,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9757,10 +9769,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9832,31 +9844,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9884,10 +9896,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9959,31 +9971,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -10011,10 +10023,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10086,115 +10098,74 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10219,44 +10190,85 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10327,10 +10339,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10410,10 +10422,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10454,10 +10466,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10529,31 +10541,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10581,10 +10593,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10656,31 +10668,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10708,10 +10720,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10783,31 +10795,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10835,10 +10847,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10910,31 +10922,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -10962,10 +10974,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11037,31 +11049,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11089,10 +11101,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11164,31 +11176,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11216,10 +11228,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11291,31 +11303,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11343,10 +11355,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11418,31 +11430,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11470,10 +11482,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11545,31 +11557,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11597,10 +11609,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11672,31 +11684,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11724,10 +11736,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11799,31 +11811,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -11851,10 +11863,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11926,31 +11938,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -11978,10 +11990,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12053,31 +12065,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12105,10 +12117,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12180,31 +12192,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12232,10 +12244,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12307,31 +12319,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12359,10 +12371,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12434,31 +12446,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12486,10 +12498,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12561,31 +12573,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12613,10 +12625,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12688,31 +12700,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12740,10 +12752,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12815,86 +12827,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -12919,73 +12948,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13056,10 +13068,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13139,10 +13151,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13183,10 +13195,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13258,31 +13270,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13310,10 +13322,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13385,31 +13397,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13437,10 +13449,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13512,31 +13524,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13564,10 +13576,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13639,31 +13651,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13691,10 +13703,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13766,31 +13778,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13818,10 +13830,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13893,31 +13905,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -13945,10 +13957,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14020,31 +14032,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14072,10 +14084,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14147,31 +14159,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14199,10 +14211,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14274,31 +14286,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14326,10 +14338,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14401,31 +14413,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14453,10 +14465,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14528,31 +14540,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14580,10 +14592,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14655,31 +14667,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14707,10 +14719,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14782,31 +14794,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14834,10 +14846,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14909,31 +14921,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -14961,10 +14973,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15036,31 +15048,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15088,10 +15100,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15163,31 +15175,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15215,10 +15227,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15290,31 +15302,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15342,10 +15354,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15417,31 +15429,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15469,10 +15481,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15544,110 +15556,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15664,57 +15653,80 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15785,10 +15797,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15868,10 +15880,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -15912,10 +15924,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15987,31 +15999,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16039,10 +16051,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16114,31 +16126,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16166,10 +16178,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16241,31 +16253,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16293,10 +16305,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16368,31 +16380,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16420,10 +16432,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16495,31 +16507,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16547,10 +16559,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16622,31 +16634,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16674,10 +16686,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16749,31 +16761,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16801,10 +16813,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16876,31 +16888,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -16928,10 +16940,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17003,31 +17015,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17055,10 +17067,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17130,31 +17142,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17182,10 +17194,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17257,31 +17269,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17309,10 +17321,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17384,31 +17396,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17436,10 +17448,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17511,31 +17523,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17563,10 +17575,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17638,31 +17650,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17690,10 +17702,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17765,31 +17777,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17817,10 +17829,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17892,31 +17904,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -17944,10 +17956,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18019,31 +18031,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18071,10 +18083,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18146,31 +18158,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18198,10 +18210,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18273,86 +18285,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -18377,73 +18406,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2CDB1C-D36E-4335-ACCB-5270BD6B0473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857905D6-80BA-43C7-A402-5A23A5294366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="129">
   <si>
     <t>Nr</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>28.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>Nach Besprechung im Team</t>
   </si>
 </sst>
 </file>
@@ -1325,116 +1331,100 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,9 +1432,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1460,6 +1447,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1503,13 +1493,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,83 +1535,90 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1629,7 +1626,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,8 +1647,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2158,7 +2164,7 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
@@ -2177,18 +2183,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2198,18 +2204,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="94">
-        <v>1</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="141">
+        <v>1</v>
+      </c>
+      <c r="F3" s="141"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2222,20 +2228,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99">
+      <c r="D4" s="144"/>
+      <c r="E4" s="145">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="145"/>
+      <c r="G4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2245,20 +2251,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="95">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="121">
         <v>12</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="100" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2268,21 +2274,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="76">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="154">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2292,19 +2298,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="78">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="156">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2314,9 +2320,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2324,11 +2330,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2356,62 +2362,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="153"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="133">
+      <c r="D11" s="129">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="158" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2494,26 +2500,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="86" t="s">
+      <c r="AD11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="85" t="s">
+      <c r="AE11" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="85" t="s">
+      <c r="AF11" s="160" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="112"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="84"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2574,30 +2580,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="str">
+      <c r="B13" s="109" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="122">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="118">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="121">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="131">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="157"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2685,23 +2691,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="67">
+      <c r="AE13" s="74">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="80">
+      <c r="AF13" s="76">
         <f>AD14-AE13</f>
-        <v>-63</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="158"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2719,7 +2725,7 @@
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="32">
         <f>'Std-A'!$C$56</f>
@@ -2787,19 +2793,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="81"/>
+        <v>13</v>
+      </c>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="73"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="158"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2817,7 +2823,7 @@
       </c>
       <c r="M15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="1"/>
@@ -2885,31 +2891,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="82"/>
+        <v>13</v>
+      </c>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="78"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="str">
+      <c r="B16" s="79" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="127">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="85">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="126">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="91">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="157"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -2997,23 +3003,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="74">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="80">
+      <c r="AF16" s="76">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="158"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3101,17 +3107,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="81"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="73"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3199,29 +3205,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="155"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="77"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="str">
+      <c r="B19" s="79" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="127">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="85">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="88">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="91">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="157"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3309,23 +3315,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="67">
+      <c r="AE19" s="74">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="160">
+      <c r="AF19" s="72">
         <f>AD20-AE19</f>
         <v>-75</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="158"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3413,17 +3419,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="81"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="73"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="158"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3511,29 +3517,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="82"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="78"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105" t="str">
+      <c r="B22" s="79" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="127">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="85">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="88">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="91">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="157"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3621,23 +3627,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="67">
+      <c r="AE22" s="74">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="80">
+      <c r="AF22" s="76">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="158"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3725,17 +3731,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="81"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="73"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="158"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3823,29 +3829,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="155"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="77"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="str">
+      <c r="B25" s="79" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="127">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="85">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="88">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G25" s="91">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="157"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3933,23 +3939,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="159">
+      <c r="AE25" s="70">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="160">
+      <c r="AF25" s="72">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="158"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4037,17 +4043,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="81"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="73"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="158"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4135,8 +4141,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="81"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="73"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -4606,44 +4612,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4660,16 +4638,44 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4785,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4843,10 +4849,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4944,10 +4950,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -4986,10 +4992,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5077,31 +5083,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5129,10 +5135,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5210,31 +5216,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5262,10 +5268,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5274,23 +5280,35 @@
       <c r="A39" s="46">
         <v>1</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="43">
+        <v>20</v>
+      </c>
       <c r="D39" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="42" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46">
         <v>2</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="43">
+        <v>43</v>
+      </c>
       <c r="D40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="42" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
@@ -5337,31 +5355,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5389,10 +5407,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5464,31 +5482,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5516,10 +5534,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5591,31 +5609,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5643,10 +5661,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5718,31 +5736,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5770,10 +5788,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5845,31 +5863,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5897,10 +5915,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5972,31 +5990,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -6024,10 +6042,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6099,31 +6117,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6151,10 +6169,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6226,31 +6244,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6278,10 +6296,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6353,31 +6371,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6405,10 +6423,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6480,31 +6498,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6532,10 +6550,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6607,31 +6625,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6659,10 +6677,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6734,31 +6752,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6786,10 +6804,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6861,31 +6879,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -6913,10 +6931,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6988,31 +7006,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -7040,10 +7058,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7115,31 +7133,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7167,10 +7185,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7242,31 +7260,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7294,10 +7312,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7369,102 +7387,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7489,57 +7492,72 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7610,10 +7628,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7693,10 +7711,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7737,10 +7755,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7812,31 +7830,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7864,10 +7882,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7939,31 +7957,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -7991,10 +8009,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8066,31 +8084,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8118,10 +8136,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8193,31 +8211,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8245,10 +8263,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8320,31 +8338,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8372,10 +8390,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8447,31 +8465,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8499,10 +8517,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8574,31 +8592,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8626,10 +8644,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8701,31 +8719,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8753,10 +8771,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8828,31 +8846,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8880,10 +8898,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8955,31 +8973,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -9007,10 +9025,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9082,31 +9100,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9134,10 +9152,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9209,31 +9227,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9261,10 +9279,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9336,31 +9354,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9388,10 +9406,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9463,31 +9481,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9515,10 +9533,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9590,31 +9608,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9642,10 +9660,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9717,31 +9735,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9769,10 +9787,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9844,31 +9862,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9896,10 +9914,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9971,31 +9989,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -10023,10 +10041,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10098,74 +10116,115 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10190,85 +10249,44 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10339,10 +10357,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10422,10 +10440,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10466,10 +10484,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10541,31 +10559,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10593,10 +10611,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10668,31 +10686,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10720,10 +10738,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10795,31 +10813,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10847,10 +10865,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10922,31 +10940,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -10974,10 +10992,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11049,31 +11067,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11101,10 +11119,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11176,31 +11194,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11228,10 +11246,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11303,31 +11321,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11355,10 +11373,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11430,31 +11448,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11482,10 +11500,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11557,31 +11575,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11609,10 +11627,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11684,31 +11702,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11736,10 +11754,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11811,31 +11829,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -11863,10 +11881,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11938,31 +11956,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -11990,10 +12008,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12065,31 +12083,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12117,10 +12135,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12192,31 +12210,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12244,10 +12262,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12319,31 +12337,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12371,10 +12389,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12446,31 +12464,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12498,10 +12516,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12573,31 +12591,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12625,10 +12643,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12700,31 +12718,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12752,10 +12770,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12827,79 +12845,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -12924,80 +12973,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13068,10 +13086,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13151,10 +13169,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13195,10 +13213,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13270,31 +13288,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13322,10 +13340,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13397,31 +13415,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13449,10 +13467,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13524,31 +13542,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13576,10 +13594,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13651,31 +13669,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13703,10 +13721,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13778,31 +13796,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13830,10 +13848,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13905,31 +13923,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -13957,10 +13975,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14032,31 +14050,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14084,10 +14102,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14159,31 +14177,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14211,10 +14229,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14286,31 +14304,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14338,10 +14356,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14413,31 +14431,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14465,10 +14483,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14540,31 +14558,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14592,10 +14610,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14667,31 +14685,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14719,10 +14737,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14794,31 +14812,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14846,10 +14864,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14921,31 +14939,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -14973,10 +14991,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15048,31 +15066,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15100,10 +15118,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15175,31 +15193,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15227,10 +15245,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15302,31 +15320,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15354,10 +15372,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15429,31 +15447,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15481,10 +15499,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15556,87 +15574,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15653,80 +15694,57 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15797,10 +15815,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15880,10 +15898,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -15924,10 +15942,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15999,31 +16017,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16051,10 +16069,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16126,31 +16144,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16178,10 +16196,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16253,31 +16271,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16305,10 +16323,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16380,31 +16398,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16432,10 +16450,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16507,31 +16525,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16559,10 +16577,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16634,31 +16652,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16686,10 +16704,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16761,31 +16779,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16813,10 +16831,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16888,31 +16906,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -16940,10 +16958,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17015,31 +17033,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17067,10 +17085,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17142,31 +17160,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17194,10 +17212,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17269,31 +17287,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17321,10 +17339,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17396,31 +17414,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17448,10 +17466,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17523,31 +17541,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17575,10 +17593,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17650,31 +17668,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17702,10 +17720,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17777,31 +17795,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17829,10 +17847,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17904,31 +17922,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -17956,10 +17974,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18031,31 +18049,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18083,10 +18101,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18158,31 +18176,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18210,10 +18228,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18285,79 +18303,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -18382,80 +18431,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648FBC2-50D9-48E6-9044-2C3194600C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A56F3B5-0186-41BC-A690-014765B173A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="136">
   <si>
     <t>Nr</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>Home-Assistant Skripts und kopplung im Netz</t>
+  </si>
+  <si>
+    <t>Besprechung im Team</t>
+  </si>
+  <si>
+    <t>Logitech Harmony Hub funktion besprochen, informationen gesammelt für die Anwendung, liferfrist und bestellmöglichkeiten gecheckt. Zusätzlich Amazon Fire stick infos gesammelt und mögliche konfiguration besprochen.</t>
+  </si>
+  <si>
+    <t>Aufgaben asugearbeitet (besprochen) und zugeteilt für alle beteiligten für die nächste Woche.</t>
   </si>
 </sst>
 </file>
@@ -1343,116 +1352,100 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,9 +1453,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1478,6 +1468,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1521,13 +1514,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,83 +1556,90 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1647,7 +1647,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1659,8 +1668,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2195,18 +2204,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2216,18 +2225,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="94">
-        <v>1</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="141">
+        <v>1</v>
+      </c>
+      <c r="F3" s="141"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2240,20 +2249,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99">
+      <c r="D4" s="144"/>
+      <c r="E4" s="145">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="145"/>
+      <c r="G4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2263,20 +2272,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="95">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="121">
         <v>12</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="100" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2286,21 +2295,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="76">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="154">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2310,19 +2319,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="78">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="156">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2332,9 +2341,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2342,11 +2351,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2374,62 +2383,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="153"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="133">
+      <c r="D11" s="129">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="158" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2512,26 +2521,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="86" t="s">
+      <c r="AD11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="85" t="s">
+      <c r="AE11" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="85" t="s">
+      <c r="AF11" s="160" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="112"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="84"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2592,30 +2601,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="str">
+      <c r="B13" s="109" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="122">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="118">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="121">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="131">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="157"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2703,23 +2712,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="67">
+      <c r="AE13" s="74">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="80">
+      <c r="AF13" s="76">
         <f>AD14-AE13</f>
-        <v>-62</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="158"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2737,7 +2746,7 @@
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="32">
         <f>'Std-A'!$C$56</f>
@@ -2805,19 +2814,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="73"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="158"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2835,7 +2844,7 @@
       </c>
       <c r="M15" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="1"/>
@@ -2903,31 +2912,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="82"/>
+        <v>16</v>
+      </c>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="78"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="str">
+      <c r="B16" s="79" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="127">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="85">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="126">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="91">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="157"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -3015,23 +3024,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="74">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="80">
+      <c r="AF16" s="76">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="158"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3119,17 +3128,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="81"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="73"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3217,29 +3226,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="155"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="77"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="str">
+      <c r="B19" s="79" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="127">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="85">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="88">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="91">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>2</v>
       </c>
-      <c r="H19" s="157"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3327,23 +3336,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="67">
+      <c r="AE19" s="74">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="160">
+      <c r="AF19" s="72">
         <f>AD20-AE19</f>
         <v>-60</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="158"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3431,17 +3440,17 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="81"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="73"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="158"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3529,29 +3538,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="82"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="78"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105" t="str">
+      <c r="B22" s="79" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="127">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="85">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="88">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="91">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="157"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3639,23 +3648,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="67">
+      <c r="AE22" s="74">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="80">
+      <c r="AF22" s="76">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="158"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3743,17 +3752,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="81"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="73"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="158"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3841,29 +3850,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="155"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="77"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="str">
+      <c r="B25" s="79" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="127">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="85">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="88">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G25" s="91">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="157"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3951,23 +3960,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="159">
+      <c r="AE25" s="70">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="160">
+      <c r="AF25" s="72">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="158"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4055,17 +4064,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="81"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="73"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="158"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4153,8 +4162,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="81"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="73"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -4624,44 +4633,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4678,16 +4659,44 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4861,10 +4870,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4962,10 +4971,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -5004,10 +5013,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5095,31 +5104,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5147,10 +5156,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5228,31 +5237,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5280,10 +5289,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5326,23 +5335,35 @@
       <c r="A41" s="46">
         <v>3</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="43">
+        <v>122</v>
+      </c>
       <c r="D41" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="42" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <v>4</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="43">
+        <v>29</v>
+      </c>
       <c r="D42" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="42" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
@@ -5367,31 +5388,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5419,10 +5440,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5494,31 +5515,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5546,10 +5567,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5621,31 +5642,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5673,10 +5694,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5748,31 +5769,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5800,10 +5821,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5875,31 +5896,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5927,10 +5948,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -6002,31 +6023,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -6054,10 +6075,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6129,31 +6150,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6181,10 +6202,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6256,31 +6277,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6308,10 +6329,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6383,31 +6404,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6435,10 +6456,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6510,31 +6531,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6562,10 +6583,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6637,31 +6658,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6689,10 +6710,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6764,31 +6785,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6816,10 +6837,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6891,31 +6912,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -6943,10 +6964,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -7018,31 +7039,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -7070,10 +7091,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7145,31 +7166,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7197,10 +7218,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7272,31 +7293,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7324,10 +7345,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7399,102 +7420,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7519,57 +7525,72 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7640,10 +7661,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7723,10 +7744,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7767,10 +7788,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7842,31 +7863,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7894,10 +7915,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7969,31 +7990,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -8021,10 +8042,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8096,31 +8117,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8148,10 +8169,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8223,31 +8244,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8275,10 +8296,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8350,31 +8371,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8402,10 +8423,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8477,31 +8498,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8529,10 +8550,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8604,31 +8625,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8656,10 +8677,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8731,31 +8752,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8783,10 +8804,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8858,31 +8879,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8910,10 +8931,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8985,31 +9006,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -9037,10 +9058,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9112,31 +9133,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9164,10 +9185,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9239,31 +9260,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9291,10 +9312,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9366,31 +9387,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9418,10 +9439,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9493,31 +9514,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9545,10 +9566,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9620,31 +9641,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9672,10 +9693,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9747,31 +9768,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9799,10 +9820,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9874,31 +9895,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9926,10 +9947,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -10001,31 +10022,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -10053,10 +10074,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10128,74 +10149,115 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10220,85 +10282,44 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10369,10 +10390,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10470,10 +10491,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10514,10 +10535,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10605,31 +10626,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10657,10 +10678,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10742,31 +10763,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C29:C33)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10794,10 +10815,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10875,31 +10896,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10927,10 +10948,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -11002,31 +11023,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -11054,10 +11075,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11129,31 +11150,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11181,10 +11202,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11256,31 +11277,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11308,10 +11329,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11383,31 +11404,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11435,10 +11456,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11510,31 +11531,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11562,10 +11583,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11637,31 +11658,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11689,10 +11710,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11764,31 +11785,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11816,10 +11837,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11891,31 +11912,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -11943,10 +11964,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -12018,31 +12039,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -12070,10 +12091,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12145,31 +12166,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12197,10 +12218,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12272,31 +12293,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12324,10 +12345,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12399,31 +12420,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12451,10 +12472,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12526,31 +12547,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12578,10 +12599,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12653,31 +12674,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12705,10 +12726,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12780,31 +12801,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12832,10 +12853,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12907,79 +12928,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -13004,80 +13056,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13148,10 +13169,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13231,10 +13252,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13275,10 +13296,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13350,31 +13371,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13402,10 +13423,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13477,31 +13498,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13529,10 +13550,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13604,31 +13625,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13656,10 +13677,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13731,31 +13752,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13783,10 +13804,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13858,31 +13879,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13910,10 +13931,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13985,31 +14006,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -14037,10 +14058,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14112,31 +14133,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14164,10 +14185,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14239,31 +14260,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14291,10 +14312,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14366,31 +14387,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14418,10 +14439,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14493,31 +14514,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14545,10 +14566,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14620,31 +14641,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14672,10 +14693,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14747,31 +14768,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14799,10 +14820,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14874,31 +14895,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14926,10 +14947,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -15001,31 +15022,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -15053,10 +15074,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15128,31 +15149,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15180,10 +15201,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15255,31 +15276,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15307,10 +15328,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15382,31 +15403,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15434,10 +15455,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15509,31 +15530,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15561,10 +15582,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15636,87 +15657,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15733,80 +15777,57 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15877,10 +15898,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15960,10 +15981,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -16004,10 +16025,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -16079,31 +16100,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16131,10 +16152,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16206,31 +16227,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16258,10 +16279,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16333,31 +16354,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16385,10 +16406,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16460,31 +16481,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16512,10 +16533,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16587,31 +16608,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16639,10 +16660,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16714,31 +16735,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16766,10 +16787,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16841,31 +16862,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16893,10 +16914,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16968,31 +16989,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -17020,10 +17041,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17095,31 +17116,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17147,10 +17168,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17222,31 +17243,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17274,10 +17295,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17349,31 +17370,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17401,10 +17422,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17476,31 +17497,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17528,10 +17549,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17603,31 +17624,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17655,10 +17676,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17730,31 +17751,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17782,10 +17803,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17857,31 +17878,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17909,10 +17930,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17984,31 +18005,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -18036,10 +18057,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18111,31 +18132,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18163,10 +18184,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18238,31 +18259,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18290,10 +18311,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18365,79 +18386,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -18462,80 +18514,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hagenberg_FH\3. Semester\Semester Projekt\Home Automation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B7843-282F-4B00-AA18-89AA7991C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0CD62-558F-4B52-9AE5-F5F29BD2C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="1630" windowWidth="14250" windowHeight="11720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="142">
   <si>
     <t>Nr</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>HomeAssistent und Harmony hub verknüpfen und fernseher über scripts bedienen</t>
+  </si>
+  <si>
+    <t>Python / Homeassist</t>
+  </si>
+  <si>
+    <t>versuch mit Python auf Homeassistant Entities zu zugreifen</t>
   </si>
 </sst>
 </file>
@@ -1364,116 +1370,100 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,9 +1471,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1499,6 +1486,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1542,13 +1532,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,83 +1574,90 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1668,7 +1665,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,8 +1686,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2216,18 +2222,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2237,18 +2243,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="94">
-        <v>1</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="141">
+        <v>1</v>
+      </c>
+      <c r="F3" s="141"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2261,20 +2267,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99">
+      <c r="D4" s="144"/>
+      <c r="E4" s="145">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="145"/>
+      <c r="G4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2284,20 +2290,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="95">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="121">
         <v>12</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="100" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2307,21 +2313,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="76">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="154">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2331,19 +2337,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="78">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="156">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2353,9 +2359,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2363,11 +2369,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2395,62 +2401,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="153"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="133">
+      <c r="D11" s="129">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="158" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2533,26 +2539,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="86" t="s">
+      <c r="AD11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="85" t="s">
+      <c r="AE11" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="85" t="s">
+      <c r="AF11" s="160" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="112"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="84"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2613,30 +2619,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="113" t="str">
+      <c r="B13" s="109" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="122">
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="118">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="121">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="131">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="157"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2724,23 +2730,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="67">
+      <c r="AE13" s="74">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="80">
+      <c r="AF13" s="76">
         <f>AD14-AE13</f>
-        <v>-56</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="158"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2774,7 +2780,7 @@
       </c>
       <c r="Q14" s="32">
         <f>'Std-A'!$C$89</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R14" s="32">
         <f>'Std-A'!$C$100</f>
@@ -2826,19 +2832,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="81"/>
+        <v>23</v>
+      </c>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="73"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="158"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2872,7 +2878,7 @@
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="1"/>
@@ -2924,31 +2930,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="82"/>
+        <v>23</v>
+      </c>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="78"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="str">
+      <c r="B16" s="79" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="127">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="85">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="126">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="91">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="157"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -3036,23 +3042,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="74">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="80">
+      <c r="AF16" s="76">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="158"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3140,17 +3146,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="81"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="73"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3238,29 +3244,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="155"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="77"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="str">
+      <c r="B19" s="79" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="127">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="85">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="88">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="91">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>2</v>
       </c>
-      <c r="H19" s="157"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3348,23 +3354,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="67">
+      <c r="AE19" s="74">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="160">
+      <c r="AF19" s="72">
         <f>AD20-AE19</f>
         <v>-57</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="158"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3452,17 +3458,17 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="81"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="73"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="158"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3550,29 +3556,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="82"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="78"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105" t="str">
+      <c r="B22" s="79" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="127">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="85">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="88">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="91">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="157"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3660,23 +3666,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="67">
+      <c r="AE22" s="74">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="80">
+      <c r="AF22" s="76">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="158"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3764,17 +3770,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="81"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="73"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="158"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3862,29 +3868,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="155"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="77"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="str">
+      <c r="B25" s="79" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="127">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="85">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="88">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G25" s="91">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="157"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3972,23 +3978,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="159">
+      <c r="AE25" s="70">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="160">
+      <c r="AF25" s="72">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="158"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4076,17 +4082,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="81"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="73"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="158"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4174,8 +4180,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="81"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="73"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
@@ -4645,44 +4651,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4699,16 +4677,44 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4882,10 +4888,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4983,10 +4989,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -5025,10 +5031,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5116,31 +5122,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5168,10 +5174,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5249,31 +5255,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5301,10 +5307,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5400,31 +5406,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5452,10 +5458,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5527,31 +5533,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5579,10 +5585,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5654,31 +5660,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5706,10 +5712,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5781,31 +5787,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5833,10 +5839,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5879,12 +5885,18 @@
       <c r="A85" s="46">
         <v>3</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="43"/>
+      <c r="B85" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="43">
+        <v>227</v>
+      </c>
       <c r="D85" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="42"/>
+      <c r="E85" s="42" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="86" spans="1:5" s="47" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46">
@@ -5920,31 +5932,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
-        <v>3</v>
-      </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+        <v>7</v>
+      </c>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5972,10 +5984,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -6047,31 +6059,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -6099,10 +6111,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6174,31 +6186,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6226,10 +6238,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6301,31 +6313,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6353,10 +6365,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6428,31 +6440,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6480,10 +6492,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6555,31 +6567,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6607,10 +6619,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6682,31 +6694,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6734,10 +6746,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6809,31 +6821,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6861,10 +6873,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6936,31 +6948,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -6988,10 +7000,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -7063,31 +7075,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -7115,10 +7127,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7190,31 +7202,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7242,10 +7254,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7317,31 +7329,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7369,10 +7381,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7444,102 +7456,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7564,57 +7561,72 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7685,10 +7697,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7768,10 +7780,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7812,10 +7824,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7887,31 +7899,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7939,10 +7951,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -8014,31 +8026,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -8066,10 +8078,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8141,31 +8153,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8193,10 +8205,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8268,31 +8280,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8320,10 +8332,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8395,31 +8407,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8447,10 +8459,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8522,31 +8534,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8574,10 +8586,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8649,31 +8661,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8701,10 +8713,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8776,31 +8788,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8828,10 +8840,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8903,31 +8915,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8955,10 +8967,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -9030,31 +9042,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -9082,10 +9094,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9157,31 +9169,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9209,10 +9221,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9284,31 +9296,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9336,10 +9348,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9411,31 +9423,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9463,10 +9475,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9538,31 +9550,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9590,10 +9602,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9665,31 +9677,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9717,10 +9729,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9792,31 +9804,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9844,10 +9856,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9919,31 +9931,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9971,10 +9983,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -10046,31 +10058,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -10098,10 +10110,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10173,74 +10185,115 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10265,85 +10318,44 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10414,10 +10426,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10515,10 +10527,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10559,10 +10571,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10650,31 +10662,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10702,10 +10714,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10787,31 +10799,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C29:C33)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10839,10 +10851,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10920,31 +10932,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10972,10 +10984,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -11047,31 +11059,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -11099,10 +11111,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11174,31 +11186,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11226,10 +11238,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11301,31 +11313,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11353,10 +11365,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11440,31 +11452,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11492,10 +11504,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11567,31 +11579,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11619,10 +11631,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11694,31 +11706,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11746,10 +11758,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11821,31 +11833,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11873,10 +11885,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11948,31 +11960,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -12000,10 +12012,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -12075,31 +12087,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -12127,10 +12139,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12202,31 +12214,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12254,10 +12266,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12329,31 +12341,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12381,10 +12393,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12456,31 +12468,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12508,10 +12520,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12583,31 +12595,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12635,10 +12647,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12710,31 +12722,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12762,10 +12774,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12837,31 +12849,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12889,10 +12901,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12964,79 +12976,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -13061,80 +13104,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13205,10 +13217,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13288,10 +13300,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13332,10 +13344,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13407,31 +13419,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13459,10 +13471,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13534,31 +13546,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13586,10 +13598,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13661,31 +13673,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13713,10 +13725,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13788,31 +13800,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13840,10 +13852,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13915,31 +13927,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13967,10 +13979,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -14042,31 +14054,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -14094,10 +14106,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14169,31 +14181,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14221,10 +14233,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14296,31 +14308,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14348,10 +14360,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14423,31 +14435,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14475,10 +14487,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14550,31 +14562,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14602,10 +14614,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14677,31 +14689,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14729,10 +14741,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14804,31 +14816,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14856,10 +14868,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14931,31 +14943,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14983,10 +14995,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -15058,31 +15070,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -15110,10 +15122,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15185,31 +15197,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15237,10 +15249,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15312,31 +15324,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15364,10 +15376,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15439,31 +15451,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15491,10 +15503,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15566,31 +15578,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15618,10 +15630,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15693,87 +15705,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15790,80 +15825,57 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15934,10 +15946,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -16017,10 +16029,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="D12" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -16061,10 +16073,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -16136,31 +16148,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="164"/>
+      <c r="D23" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="166"/>
+      <c r="A24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="163"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="167"/>
+      <c r="D24" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16188,10 +16200,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16263,31 +16275,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="166"/>
+      <c r="A35" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="163"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="167"/>
+      <c r="D35" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16315,10 +16327,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16390,31 +16402,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="164"/>
+      <c r="D45" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="166"/>
+      <c r="A46" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="167"/>
+      <c r="D46" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16442,10 +16454,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="171"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16517,31 +16529,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="164"/>
+      <c r="D56" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="166"/>
+      <c r="A57" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="163"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="167"/>
+      <c r="D57" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16569,10 +16581,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="171"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16644,31 +16656,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="164"/>
+      <c r="D67" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="167"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="166"/>
+      <c r="A68" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="163"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="167"/>
+      <c r="D68" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16696,10 +16708,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="171" t="s">
+      <c r="C71" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16771,31 +16783,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
+      <c r="A78" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="164"/>
+      <c r="D78" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="167"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="166"/>
+      <c r="A79" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="163"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="167"/>
+      <c r="D79" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16823,10 +16835,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="171" t="s">
+      <c r="C82" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="171"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16898,31 +16910,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="164"/>
+      <c r="D89" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="167"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="166"/>
+      <c r="A90" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="163"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="167"/>
+      <c r="D90" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16950,10 +16962,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="171" t="s">
+      <c r="C93" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -17025,31 +17037,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="171"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="164"/>
+      <c r="D100" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="167"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="166"/>
+      <c r="A101" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="163"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="167"/>
+      <c r="D101" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -17077,10 +17089,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="171"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17152,31 +17164,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="162" t="s">
+      <c r="A111" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="164"/>
+      <c r="D111" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="166"/>
+      <c r="A112" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="163"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="167"/>
+      <c r="D112" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17204,10 +17216,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="171" t="s">
+      <c r="C115" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17279,31 +17291,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="162" t="s">
+      <c r="A122" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="171"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="164"/>
+      <c r="D122" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="167"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="166"/>
+      <c r="A123" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="163"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="167"/>
+      <c r="D123" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17331,10 +17343,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="171" t="s">
+      <c r="C126" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="171"/>
+      <c r="D126" s="164"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17406,31 +17418,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="163"/>
+      <c r="B133" s="171"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="164"/>
+      <c r="D133" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="167"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="166"/>
+      <c r="A134" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="163"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="167"/>
+      <c r="D134" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17458,10 +17470,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="171" t="s">
+      <c r="C137" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="171"/>
+      <c r="D137" s="164"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17533,31 +17545,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="171"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="164"/>
+      <c r="D144" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="167"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="166"/>
+      <c r="A145" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="163"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="167"/>
+      <c r="D145" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17585,10 +17597,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="171"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17660,31 +17672,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="171"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="164"/>
+      <c r="D155" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="167"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="166"/>
+      <c r="A156" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="163"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="167"/>
+      <c r="D156" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17712,10 +17724,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="171" t="s">
+      <c r="C159" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="171"/>
+      <c r="D159" s="164"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17787,31 +17799,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="162" t="s">
+      <c r="A166" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="171"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="164"/>
+      <c r="D166" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="167"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="166"/>
+      <c r="A167" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="163"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="167"/>
+      <c r="D167" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="165"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17839,10 +17851,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="171" t="s">
+      <c r="C170" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="171"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17914,31 +17926,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="162" t="s">
+      <c r="A177" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="171"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="164"/>
+      <c r="D177" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="167"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="166"/>
+      <c r="A178" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="163"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="167"/>
+      <c r="D178" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="165"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17966,10 +17978,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="171" t="s">
+      <c r="C181" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="171"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -18041,31 +18053,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="162" t="s">
+      <c r="A188" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="171"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="164"/>
+      <c r="D188" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="167"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="166"/>
+      <c r="A189" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="163"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="167"/>
+      <c r="D189" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="165"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -18093,10 +18105,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="171" t="s">
+      <c r="C192" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="171"/>
+      <c r="D192" s="164"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18168,31 +18180,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="162" t="s">
+      <c r="A199" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="171"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="164"/>
+      <c r="D199" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="167"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="166"/>
+      <c r="A200" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="163"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="167"/>
+      <c r="D200" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="165"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18220,10 +18232,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="171" t="s">
+      <c r="C203" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="171"/>
+      <c r="D203" s="164"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18295,31 +18307,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="162" t="s">
+      <c r="A210" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="163"/>
+      <c r="B210" s="171"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="164"/>
+      <c r="D210" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="167"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="166"/>
+      <c r="A211" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="163"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="167"/>
+      <c r="D211" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="165"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18347,10 +18359,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="171" t="s">
+      <c r="C214" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="171"/>
+      <c r="D214" s="164"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18422,79 +18434,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="162" t="s">
+      <c r="A221" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="171"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="164"/>
+      <c r="D221" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="167"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="166"/>
+      <c r="A222" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="163"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="167"/>
+      <c r="D222" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="165"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -18519,80 +18562,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hagenberg_FH\3. Semester\Semester Projekt\Home Automation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0CD62-558F-4B52-9AE5-F5F29BD2C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95555E44-A802-45FB-B021-4E7242E94C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="1630" windowWidth="14250" windowHeight="11720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="142">
   <si>
     <t>Nr</t>
   </si>
@@ -1370,100 +1370,116 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,6 +1487,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1486,9 +1505,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1532,13 +1548,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,90 +1590,83 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1665,16 +1674,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,8 +1686,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2222,18 +2222,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2243,18 +2243,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="141">
-        <v>1</v>
-      </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="94">
+        <v>1</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2267,20 +2267,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145">
+      <c r="D4" s="98"/>
+      <c r="E4" s="99">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2290,20 +2290,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="121">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="95">
         <v>12</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="146" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2313,21 +2313,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="154">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="76">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2337,19 +2337,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="156">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="78">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2359,9 +2359,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2369,11 +2369,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2401,62 +2401,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="151" t="s">
+      <c r="I10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="153"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="75"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="111" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="129">
+      <c r="D11" s="133">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="158" t="s">
+      <c r="H11" s="161"/>
+      <c r="I11" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2539,26 +2539,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>08.11 - 14.11.2021</v>
       </c>
-      <c r="AD11" s="161" t="s">
+      <c r="AD11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="160" t="s">
+      <c r="AE11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="160" t="s">
+      <c r="AF11" s="85" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="159"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2619,30 +2619,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="109" t="str">
+      <c r="B13" s="113" t="str">
         <f>'Std-A'!A3</f>
         <v>Lukas Züger</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="118">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="122">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="95">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="135">
         <f>F13-E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2730,23 +2730,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="74">
+      <c r="AE13" s="67">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="76">
+      <c r="AF13" s="80">
         <f>AD14-AE13</f>
-        <v>-52</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="68"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="158"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Q14" s="32">
         <f>'Std-A'!$C$89</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R14" s="32">
         <f>'Std-A'!$C$100</f>
@@ -2832,19 +2832,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="73"/>
+        <v>25</v>
+      </c>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="81"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="158"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="1"/>
@@ -2930,31 +2930,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="78"/>
+        <v>25</v>
+      </c>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="82"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="str">
+      <c r="B16" s="105" t="str">
         <f>'Std-B'!A3</f>
         <v>Abdo Shehata</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="85">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="127">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="130">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="102">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -3042,23 +3042,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="74">
+      <c r="AE16" s="67">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="76">
+      <c r="AF16" s="80">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="68"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="158"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3146,17 +3146,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="73"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="81"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="68"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="158"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3244,29 +3244,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="77"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="155"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="str">
+      <c r="B19" s="105" t="str">
         <f>'Std-C'!A3</f>
         <v>Marko Milosavljevic</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="85">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="127">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="146">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="102">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>2</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="157"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3354,23 +3354,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="AE19" s="67">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="72">
+      <c r="AF19" s="160">
         <f>AD20-AE19</f>
         <v>-57</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="68"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="158"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3458,17 +3458,17 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="73"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="81"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="68"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="158"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3556,29 +3556,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="78"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="82"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79" t="str">
+      <c r="B22" s="105" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="85">
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="127">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="146">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="102">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="157"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3666,23 +3666,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AE22" s="67">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="76">
+      <c r="AF22" s="80">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="68"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="158"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3770,17 +3770,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="73"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="81"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="68"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="158"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3868,29 +3868,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="77"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="155"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="str">
+      <c r="B25" s="105" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="85">
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="127">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="146">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="102">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="157"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3978,23 +3978,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="70">
+      <c r="AE25" s="159">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="72">
+      <c r="AF25" s="160">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="158"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4082,17 +4082,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="73"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="81"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="68"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="158"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4180,8 +4180,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="73"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="81"/>
     </row>
     <row r="28" spans="2:32" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
@@ -4651,16 +4651,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4677,44 +4705,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4888,10 +4888,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4989,10 +4989,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -5031,10 +5031,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5122,31 +5122,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -5174,10 +5174,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5255,31 +5255,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -5307,10 +5307,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5406,31 +5406,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -5458,10 +5458,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5533,31 +5533,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -5585,10 +5585,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5660,31 +5660,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -5712,10 +5712,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5787,31 +5787,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -5839,10 +5839,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5902,12 +5902,18 @@
       <c r="A86" s="46">
         <v>4</v>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="43"/>
+      <c r="B86" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="43">
+        <v>132</v>
+      </c>
       <c r="D86" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="42"/>
+      <c r="E86" s="42" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="87" spans="1:5" s="47" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="46">
@@ -5932,31 +5938,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
-        <v>7</v>
-      </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+        <v>9</v>
+      </c>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -5984,10 +5990,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -6059,31 +6065,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -6111,10 +6117,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6186,31 +6192,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -6238,10 +6244,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6313,31 +6319,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -6365,10 +6371,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6440,31 +6446,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -6492,10 +6498,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6567,31 +6573,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -6619,10 +6625,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6694,31 +6700,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -6746,10 +6752,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6821,31 +6827,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -6873,10 +6879,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6948,31 +6954,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -7000,10 +7006,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -7075,31 +7081,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -7127,10 +7133,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7202,31 +7208,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -7254,10 +7260,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7329,31 +7335,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -7381,10 +7387,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7456,87 +7462,102 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7561,72 +7582,57 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7697,10 +7703,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7780,10 +7786,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -7824,10 +7830,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7899,31 +7905,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -7951,10 +7957,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -8026,31 +8032,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -8078,10 +8084,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8153,31 +8159,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -8205,10 +8211,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8280,31 +8286,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -8332,10 +8338,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8407,31 +8413,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -8459,10 +8465,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8534,31 +8540,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -8586,10 +8592,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8661,31 +8667,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -8713,10 +8719,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8788,31 +8794,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -8840,10 +8846,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8915,31 +8921,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -8967,10 +8973,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -9042,31 +9048,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -9094,10 +9100,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9169,31 +9175,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -9221,10 +9227,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9296,31 +9302,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -9348,10 +9354,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9423,31 +9429,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -9475,10 +9481,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9550,31 +9556,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -9602,10 +9608,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9677,31 +9683,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -9729,10 +9735,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9804,31 +9810,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -9856,10 +9862,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9931,31 +9937,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -9983,10 +9989,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -10058,31 +10064,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -10110,10 +10116,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10185,115 +10191,74 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10318,44 +10283,85 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10426,10 +10432,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10527,10 +10533,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -10571,10 +10577,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10662,31 +10668,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -10714,10 +10720,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10799,31 +10805,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C29:C33)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -10851,10 +10857,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10932,31 +10938,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -10984,10 +10990,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -11059,31 +11065,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -11111,10 +11117,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11186,31 +11192,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -11238,10 +11244,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11313,31 +11319,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -11365,10 +11371,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11452,31 +11458,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -11504,10 +11510,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11579,31 +11585,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -11631,10 +11637,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11706,31 +11712,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -11758,10 +11764,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11833,31 +11839,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -11885,10 +11891,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11960,31 +11966,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -12012,10 +12018,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -12087,31 +12093,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -12139,10 +12145,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12214,31 +12220,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -12266,10 +12272,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12341,31 +12347,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -12393,10 +12399,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12468,31 +12474,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -12520,10 +12526,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12595,31 +12601,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -12647,10 +12653,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12722,31 +12728,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -12774,10 +12780,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12849,31 +12855,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -12901,10 +12907,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12976,86 +12982,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -13080,73 +13103,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13217,10 +13223,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13300,10 +13306,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -13344,10 +13350,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13419,31 +13425,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -13471,10 +13477,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13546,31 +13552,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -13598,10 +13604,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13673,31 +13679,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -13725,10 +13731,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13800,31 +13806,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -13852,10 +13858,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13927,31 +13933,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -13979,10 +13985,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -14054,31 +14060,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -14106,10 +14112,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14181,31 +14187,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -14233,10 +14239,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14308,31 +14314,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -14360,10 +14366,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14435,31 +14441,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -14487,10 +14493,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14562,31 +14568,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -14614,10 +14620,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14689,31 +14695,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -14741,10 +14747,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14816,31 +14822,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -14868,10 +14874,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14943,31 +14949,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -14995,10 +15001,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -15070,31 +15076,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -15122,10 +15128,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15197,31 +15203,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -15249,10 +15255,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15324,31 +15330,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -15376,10 +15382,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15451,31 +15457,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -15503,10 +15509,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15578,31 +15584,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -15630,10 +15636,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15705,110 +15711,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15825,57 +15808,80 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15946,10 +15952,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -16029,10 +16035,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
@@ -16073,10 +16079,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -16148,31 +16154,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
@@ -16200,10 +16206,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16275,31 +16281,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
@@ -16327,10 +16333,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16402,31 +16408,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
@@ -16454,10 +16460,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16529,31 +16535,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
@@ -16581,10 +16587,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16656,31 +16662,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168"/>
@@ -16708,10 +16714,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16783,31 +16789,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
@@ -16835,10 +16841,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16910,31 +16916,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="168"/>
@@ -16962,10 +16968,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -17037,31 +17043,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="168"/>
@@ -17089,10 +17095,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17164,31 +17170,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="168"/>
@@ -17216,10 +17222,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17291,31 +17297,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="168"/>
@@ -17343,10 +17349,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17418,31 +17424,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="168"/>
@@ -17470,10 +17476,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17545,31 +17551,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="168"/>
@@ -17597,10 +17603,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17672,31 +17678,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="168"/>
@@ -17724,10 +17730,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17799,31 +17805,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="168"/>
@@ -17851,10 +17857,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17926,31 +17932,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="168"/>
@@ -17978,10 +17984,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -18053,31 +18059,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="168"/>
@@ -18105,10 +18111,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18180,31 +18186,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="168"/>
@@ -18232,10 +18238,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18307,31 +18313,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A212" s="168"/>
@@ -18359,10 +18365,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18434,86 +18440,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -18538,73 +18561,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
